--- a/Timesheet and MOM/Timesheet (1).xlsx
+++ b/Timesheet and MOM/Timesheet (1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" firstSheet="2" activeTab="5"/>
@@ -15,12 +15,12 @@
     <sheet name="Week#4" sheetId="6" r:id="rId6"/>
     <sheet name="TeamMember" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="103">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -344,12 +344,18 @@
   <si>
     <t>ช่องทางในการสื่อสารระหว่างกันยังหาเครื่องมือที่จะสามารถทราบได้เท่ากันทุกคนไม่ได้ ทำให้อาจมีบางเนื้อหาที่รู้ไม่เท่ากัน และตกหล่นได้</t>
   </si>
+  <si>
+    <t>- เพิ่มเติมเนื้อหาในส่วนที่ยังขาด และผ่านการทวนสอบเนื้อหาโดยทุกๆคนในทีมก่อนทำการส่ง</t>
+  </si>
+  <si>
+    <t>ในบางเนื้อหาอาจมีความเข้าใจที่ไม่เคลีย จึงทำให้งานที่ออกมาต้องมีการแก้ไขในหลายส่วน</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -600,6 +606,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -618,9 +627,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,6 +634,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -706,6 +717,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -740,6 +752,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -915,31 +928,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -951,12 +964,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="3" width="23.42578125" customWidth="1"/>
@@ -967,12 +980,12 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -980,7 +993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -988,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -996,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,7 +1017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1012,45 +1025,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="34"/>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" ht="51">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -1077,7 +1090,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -1100,7 +1113,7 @@
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75">
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -1123,7 +1136,7 @@
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75">
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>4</v>
       </c>
@@ -1146,7 +1159,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75">
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>5</v>
       </c>
@@ -1169,7 +1182,7 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>6</v>
       </c>
@@ -1184,7 +1197,7 @@
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>7</v>
       </c>
@@ -1199,7 +1212,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75">
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>8</v>
       </c>
@@ -1214,7 +1227,7 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75">
+    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>9</v>
       </c>
@@ -1229,7 +1242,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75">
+    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>10</v>
       </c>
@@ -1244,14 +1257,14 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="26">
         <f>SUM(F10:F19)</f>
         <v>20</v>
@@ -1270,22 +1283,29 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B10:B19">
-      <formula1>TeamMember!$E$2:$E$6</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>TeamMember!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B19</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
@@ -1296,12 +1316,12 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1309,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1317,7 +1337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,45 +1361,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.5">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -1406,7 +1426,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="51">
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -1433,7 +1453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="51">
+    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -1460,7 +1480,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25.5">
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>4</v>
       </c>
@@ -1487,7 +1507,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>5</v>
       </c>
@@ -1514,7 +1534,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="25.5">
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>6</v>
       </c>
@@ -1541,14 +1561,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="26">
         <f>SUM(F10:F15)</f>
         <v>9</v>
@@ -1567,22 +1587,29 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:F9"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B10:B15">
-      <formula1>TeamMember!$E$2:$E$6</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>TeamMember!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
@@ -1593,12 +1620,12 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="12.75">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1606,7 +1633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="12.75">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1614,7 +1641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="12.75">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1622,7 +1649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12.75">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1630,7 +1657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="12.75">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1638,45 +1665,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:27" ht="25.5">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -1720,7 +1747,7 @@
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
     </row>
-    <row r="11" spans="1:27" ht="25.5">
+    <row r="11" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -1764,7 +1791,7 @@
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
     </row>
-    <row r="12" spans="1:27" ht="38.25">
+    <row r="12" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -1810,7 +1837,7 @@
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
     </row>
-    <row r="13" spans="1:27" ht="63.75">
+    <row r="13" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>4</v>
       </c>
@@ -1837,7 +1864,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="63.75">
+    <row r="14" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>5</v>
       </c>
@@ -1864,7 +1891,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="51">
+    <row r="15" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>6</v>
       </c>
@@ -1890,14 +1917,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="12.75">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="26">
         <f>SUM(F10:F15)</f>
         <v>20.5</v>
@@ -1916,22 +1943,29 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:F9"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B10:B15">
-      <formula1>TeamMember!$E$2:$E$6</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>TeamMember!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
@@ -1941,12 +1975,12 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1954,7 +1988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1962,7 +1996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1970,13 +2004,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1984,45 +2018,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -2034,7 +2068,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -2046,7 +2080,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75">
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -2061,7 +2095,7 @@
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75">
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>4</v>
       </c>
@@ -2076,7 +2110,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75">
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>5</v>
       </c>
@@ -2091,7 +2125,7 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>6</v>
       </c>
@@ -2106,7 +2140,7 @@
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>7</v>
       </c>
@@ -2121,7 +2155,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75">
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>8</v>
       </c>
@@ -2136,7 +2170,7 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75">
+    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>9</v>
       </c>
@@ -2151,7 +2185,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75">
+    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>10</v>
       </c>
@@ -2166,14 +2200,14 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="18">
         <f>SUM(F10:F19)</f>
         <v>0</v>
@@ -2192,24 +2226,31 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:F9"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B10:B19">
-      <formula1>TeamMember!$E$2:$E$6</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>TeamMember!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B19</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -2220,12 +2261,12 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2233,7 +2274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2241,7 +2282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2257,7 +2298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2265,45 +2306,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" ht="114" customHeight="1">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -2330,14 +2371,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="127.5" customHeight="1">
+    <row r="11" spans="1:8" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="33" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="9"/>
@@ -2351,7 +2392,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" ht="127.5">
+    <row r="12" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -2371,14 +2412,14 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="33" t="s">
         <v>99</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>4</v>
       </c>
@@ -2388,18 +2429,24 @@
       <c r="C13" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="31">
+        <v>1</v>
+      </c>
       <c r="E13" s="31">
         <v>2</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" ht="165.75" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>5</v>
       </c>
@@ -2420,17 +2467,17 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="18">
         <f>SUM(F10:F14)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -2446,23 +2493,30 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:F9"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B10:B14">
-      <formula1>TeamMember!$E$2:$E$6</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>TeamMember!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
@@ -2471,7 +2525,7 @@
     <col min="9" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -2520,7 +2574,7 @@
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2549,7 +2603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2578,7 +2632,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2607,7 +2661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2626,7 +2680,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>

--- a/Timesheet and MOM/Timesheet (1).xlsx
+++ b/Timesheet and MOM/Timesheet (1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" firstSheet="2" activeTab="5"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="105">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -310,12 +310,6 @@
 - ช่วยกันหาหัวข้อ Research Paper ที่เกี่ยวข้องกับ Software Requirement Engineer
 - จัดทำรายละเอียดข้อมูล Tool ที่ใช้ในการพัฒนาระบบ
 - ตรวจทาน/แก้ไขเนื้อหาโดยรวมทั้งหมด</t>
-  </si>
-  <si>
-    <t>- ประชุมแบ่งงาน
-- ช่วยกันหาหัวข้อ Research Paper ที่เกี่ยวข้องกับ Software Requirement Engineer
-- ปรับเพิ่มรายละเอียดว่าควรลงทุนหรือไม่ อย่างไร ในหัวข้อ Feasibility Study
-- ตรวจทาน/แก้ไขรายละเอียดการเก็บ Requirement กับผู้ใช้งานในหัวข้อ Process Model (SDLC)</t>
   </si>
   <si>
     <t>- ประชุมแบ่งงาน
@@ -349,6 +343,20 @@
   </si>
   <si>
     <t>ในบางเนื้อหาอาจมีความเข้าใจที่ไม่เคลีย จึงทำให้งานที่ออกมาต้องมีการแก้ไขในหลายส่วน</t>
+  </si>
+  <si>
+    <t>- ประชุมแบ่งงาน
+- ช่วยกันหาหัวข้อ Research Paper ที่เกี่ยวข้องกับ Software Requirement Engineer
+- ปรับเพิ่มรายละเอียดว่าควรลงทุนหรือไม่ อย่างไร ในหัวข้อ Feasibility Study
+- ตรวจทาน/แก้ไขเนื้อหาโดยรวมของเอกสาร</t>
+  </si>
+  <si>
+    <t>- ทำงานได้ช้า เนื่องจากไม่เข้าใจเนื้อหาในส่วนของการศึกษาความเป็นไปได้ แก้ไขปรับปรุงโดยการศึกษาหาข้อมูลจากแหล่งความรู้ทางอินเทอร์เน็ตและปรึกษากับสมาชิกภายในทีม</t>
+  </si>
+  <si>
+    <t>- ศึกษาและวิเคราะห์ความเป็นไปได้ของโครงการ ทั้ง 3 บริบท
+- ตรวจทานเนื้อหาและแก้ไขข้อผิดพลาด
+- ปรึกษาหารือกับสมาชิกภายในทีมเพื่อหา Research Paper ที่น่าสนใจ</t>
   </si>
 </sst>
 </file>
@@ -526,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -627,6 +635,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2246,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2371,7 +2382,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -2379,18 +2390,24 @@
         <v>52</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
       <c r="E11" s="31">
         <v>2</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
@@ -2400,7 +2417,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="31">
         <v>1.5</v>
@@ -2413,10 +2430,10 @@
         <v>3.5</v>
       </c>
       <c r="G12" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2427,7 +2444,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="31">
         <v>1</v>
@@ -2440,10 +2457,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>101</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2454,7 +2471,7 @@
         <v>84</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31">
@@ -2477,7 +2494,7 @@
       <c r="E15" s="38"/>
       <c r="F15" s="18">
         <f>SUM(F10:F14)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>

--- a/Timesheet and MOM/Timesheet (1).xlsx
+++ b/Timesheet and MOM/Timesheet (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -357,6 +357,12 @@
     <t>- ศึกษาและวิเคราะห์ความเป็นไปได้ของโครงการ ทั้ง 3 บริบท
 - ตรวจทานเนื้อหาและแก้ไขข้อผิดพลาด
 - ปรึกษาหารือกับสมาชิกภายในทีมเพื่อหา Research Paper ที่น่าสนใจ</t>
+  </si>
+  <si>
+    <t>- เรียบเรียงเนื้อหา และเพิ่มเติมในส่วนที่ต้องแก้ไข และรวบรวมเอกสารของทุกคน</t>
+  </si>
+  <si>
+    <t>เมื่อมีการแก้ไขเอกสารต้องจัดรูปเล่มใหม่ ซึ่งใช้เวลาในการแก้ไขนาน</t>
   </si>
 </sst>
 </file>
@@ -617,6 +623,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,9 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1037,42 +1043,42 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -1269,13 +1275,13 @@
       <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="26">
         <f>SUM(F10:F19)</f>
         <v>20</v>
@@ -1373,42 +1379,42 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -1573,13 +1579,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="26">
         <f>SUM(F10:F15)</f>
         <v>9</v>
@@ -1677,42 +1683,42 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -1929,13 +1935,13 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="26">
         <f>SUM(F10:F15)</f>
         <v>20.5</v>
@@ -2030,42 +2036,42 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -2212,13 +2218,13 @@
       <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="18">
         <f>SUM(F10:F19)</f>
         <v>0</v>
@@ -2258,7 +2264,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2318,42 +2324,42 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -2382,7 +2388,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -2405,7 +2411,7 @@
       <c r="G11" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="34" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2473,28 +2479,34 @@
       <c r="C14" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="31">
+        <v>3</v>
+      </c>
       <c r="E14" s="31">
         <v>2</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="18">
         <f>SUM(F10:F14)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
